--- a/misc/Caderneta-2022.xlsx
+++ b/misc/Caderneta-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\delineamentos22\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\delineamentos22\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>RA</t>
   </si>
@@ -154,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -433,7 +433,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -467,12 +467,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -548,7 +543,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -598,7 +593,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -648,7 +643,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -698,7 +693,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -748,7 +743,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -798,7 +793,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -832,13 +827,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>204537</xdr:rowOff>
+          <xdr:rowOff>195012</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>20053</xdr:rowOff>
+          <xdr:rowOff>10528</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -848,7 +843,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -882,13 +877,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>203534</xdr:rowOff>
+          <xdr:rowOff>194009</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>39103</xdr:rowOff>
+          <xdr:rowOff>29578</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -898,7 +893,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1394,7 +1389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>30</v>
@@ -1406,7 +1401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>31</v>
@@ -1442,7 +1437,182 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId18" name="Control 1">
+        <control shapeId="1032" r:id="rId18" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId18" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId20" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId20" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId21" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId21" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId23" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId23" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId24" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId24" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId25" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId25" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId26" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId26" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId27" name="Control 1">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
@@ -1462,182 +1632,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId18" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId20" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId20" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId21" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId21" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId22" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId22" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId25" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId25" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId26" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId26" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId27" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId27" name="Control 8"/>
+        <control shapeId="1025" r:id="rId27" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1673,7 +1668,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1753,7 +1748,9 @@
       <c r="C2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -1780,7 +1777,9 @@
       <c r="C3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -1807,7 +1806,9 @@
       <c r="C4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -1834,7 +1835,9 @@
       <c r="C5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -1861,7 +1864,9 @@
       <c r="C6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -1888,7 +1893,9 @@
       <c r="C7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -1915,7 +1922,9 @@
       <c r="C8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -1929,7 +1938,7 @@
       <c r="O8" s="24"/>
       <c r="P8" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
@@ -1961,7 +1970,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P2:P9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>

--- a/misc/Caderneta-2022.xlsx
+++ b/misc/Caderneta-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\delineamentos22\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\delineamentos22\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>RA</t>
   </si>
@@ -543,7 +543,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -593,7 +593,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -643,7 +643,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -693,7 +693,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -743,7 +743,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -793,7 +793,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -827,13 +827,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>195012</xdr:rowOff>
+          <xdr:rowOff>185487</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>10528</xdr:rowOff>
+          <xdr:rowOff>1003</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -843,7 +843,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -877,13 +877,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>194009</xdr:rowOff>
+          <xdr:rowOff>184484</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>29578</xdr:rowOff>
+          <xdr:rowOff>20053</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -893,7 +893,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,132 +1437,57 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId18" name="Control 8">
+        <control shapeId="1025" r:id="rId18" name="Control 1">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId18" name="Control 8"/>
+        <control shapeId="1025" r:id="rId18" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId20" name="Control 7">
+        <control shapeId="1026" r:id="rId20" name="Control 2">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId20" name="Control 7"/>
+        <control shapeId="1026" r:id="rId20" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId21" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId21" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId23" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId23" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId24" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId24" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId25" name="Control 3">
+        <control shapeId="1027" r:id="rId21" name="Control 3">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
@@ -1582,57 +1507,132 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId25" name="Control 3"/>
+        <control shapeId="1027" r:id="rId21" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId26" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId19">
+        <control shapeId="1028" r:id="rId22" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId26" name="Control 2"/>
+        <control shapeId="1028" r:id="rId22" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId27" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId19">
+        <control shapeId="1029" r:id="rId24" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId27" name="Control 1"/>
+        <control shapeId="1029" r:id="rId24" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId25" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId25" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId26" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId26" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId27" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId27" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1951,7 +1951,9 @@
       <c r="C9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>

--- a/misc/Caderneta-2022.xlsx
+++ b/misc/Caderneta-2022.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>RA</t>
   </si>
@@ -543,7 +543,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -593,7 +593,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -643,7 +643,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -693,7 +693,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -743,7 +743,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -793,7 +793,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -827,13 +827,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>185487</xdr:rowOff>
+          <xdr:rowOff>175962</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>1003</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>212057</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -843,7 +843,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -877,13 +877,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>184484</xdr:rowOff>
+          <xdr:rowOff>174959</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>20053</xdr:rowOff>
+          <xdr:rowOff>10528</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -893,7 +893,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,7 +1437,182 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId18" name="Control 1">
+        <control shapeId="1032" r:id="rId18" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId18" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId20" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId20" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId21" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId21" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId23" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId23" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId24" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId24" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId25" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId25" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId26" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId26" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId27" name="Control 1">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
@@ -1457,182 +1632,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId18" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId20" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId20" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId21" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId21" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId22" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId22" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId25" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId25" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId26" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId26" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId27" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId27" name="Control 8"/>
+        <control shapeId="1025" r:id="rId27" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1751,7 +1751,9 @@
       <c r="D2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -1780,7 +1782,9 @@
       <c r="D3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -1809,7 +1813,9 @@
       <c r="D4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
@@ -1838,7 +1844,9 @@
       <c r="D5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -1867,7 +1875,9 @@
       <c r="D6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -1896,7 +1906,9 @@
       <c r="D7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -1925,7 +1937,9 @@
       <c r="D8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
@@ -1938,7 +1952,7 @@
       <c r="O8" s="24"/>
       <c r="P8" s="28">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
@@ -1954,7 +1968,9 @@
       <c r="D9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>

--- a/misc/Caderneta-2022.xlsx
+++ b/misc/Caderneta-2022.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
   <si>
     <t>RA</t>
   </si>
@@ -543,7 +543,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -593,7 +593,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -643,7 +643,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -693,7 +693,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -743,7 +743,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -793,7 +793,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -827,13 +827,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>175962</xdr:rowOff>
+          <xdr:rowOff>166437</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>212057</xdr:rowOff>
+          <xdr:rowOff>202532</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -843,7 +843,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -877,13 +877,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>174959</xdr:rowOff>
+          <xdr:rowOff>165434</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>10528</xdr:rowOff>
+          <xdr:rowOff>1003</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -893,7 +893,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,132 +1437,57 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId18" name="Control 8">
+        <control shapeId="1025" r:id="rId18" name="Control 1">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId18" name="Control 8"/>
+        <control shapeId="1025" r:id="rId18" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId20" name="Control 7">
+        <control shapeId="1026" r:id="rId20" name="Control 2">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId20" name="Control 7"/>
+        <control shapeId="1026" r:id="rId20" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId21" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId21" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId23" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId23" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId24" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId24" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId25" name="Control 3">
+        <control shapeId="1027" r:id="rId21" name="Control 3">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
@@ -1582,57 +1507,132 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId25" name="Control 3"/>
+        <control shapeId="1027" r:id="rId21" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId26" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId19">
+        <control shapeId="1028" r:id="rId22" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId26" name="Control 2"/>
+        <control shapeId="1028" r:id="rId22" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId27" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId19">
+        <control shapeId="1029" r:id="rId24" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId27" name="Control 1"/>
+        <control shapeId="1029" r:id="rId24" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId25" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId25" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId26" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId26" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId27" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId27" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1754,7 +1754,9 @@
       <c r="E2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1766,7 +1768,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="27">
         <f>COUNTIFS(C2:O2,"X",C2:O2,"x")*6/COUNTA(C2:O2)/6</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1">
@@ -1785,7 +1787,9 @@
       <c r="E3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -1816,7 +1820,9 @@
       <c r="E4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
@@ -1847,7 +1853,9 @@
       <c r="E5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -1878,7 +1886,9 @@
       <c r="E6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -1909,7 +1919,9 @@
       <c r="E7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -1940,7 +1952,9 @@
       <c r="E8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -1952,7 +1966,7 @@
       <c r="O8" s="24"/>
       <c r="P8" s="28">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
@@ -1971,7 +1985,9 @@
       <c r="E9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>

--- a/misc/Caderneta-2022.xlsx
+++ b/misc/Caderneta-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\delineamentos22\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\delineamentos22\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
   <si>
     <t>RA</t>
   </si>
@@ -543,7 +543,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -593,7 +593,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -643,7 +643,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -693,7 +693,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -743,7 +743,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -793,7 +793,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -827,13 +827,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>166437</xdr:rowOff>
+          <xdr:rowOff>156912</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>202532</xdr:rowOff>
+          <xdr:rowOff>193007</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -843,7 +843,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -877,13 +877,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>165434</xdr:rowOff>
+          <xdr:rowOff>155909</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>1003</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>181978</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -893,7 +893,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,7 +1437,182 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId18" name="Control 1">
+        <control shapeId="1032" r:id="rId18" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId18" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId20" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId20" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId21" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId21" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId23" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId23" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId24" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId24" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId25" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId25" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId26" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId26" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId27" name="Control 1">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
@@ -1457,182 +1632,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId18" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId20" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId20" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId21" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId21" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId22" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId22" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId25" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId25" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId26" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId26" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId27" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId27" name="Control 8"/>
+        <control shapeId="1025" r:id="rId27" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1757,7 +1757,9 @@
       <c r="F2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -1768,7 +1770,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="27">
         <f>COUNTIFS(C2:O2,"X",C2:O2,"x")*6/COUNTA(C2:O2)/6</f>
-        <v>0.75</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1">
@@ -1790,7 +1792,9 @@
       <c r="F3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
@@ -1823,7 +1827,9 @@
       <c r="F4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
@@ -1856,7 +1862,9 @@
       <c r="F5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -1889,7 +1897,9 @@
       <c r="F6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -1922,7 +1932,9 @@
       <c r="F7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -1955,7 +1967,9 @@
       <c r="F8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -1966,7 +1980,7 @@
       <c r="O8" s="24"/>
       <c r="P8" s="28">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
@@ -1988,7 +2002,9 @@
       <c r="F9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>

--- a/misc/Caderneta-2022.xlsx
+++ b/misc/Caderneta-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\delineamentos22\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\delineamentos22\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
   <si>
     <t>RA</t>
   </si>
@@ -543,7 +543,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -593,7 +593,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -643,7 +643,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -693,7 +693,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -743,7 +743,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -793,7 +793,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -827,13 +827,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>156912</xdr:rowOff>
+          <xdr:rowOff>147387</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>193007</xdr:rowOff>
+          <xdr:rowOff>183482</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -843,7 +843,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -877,13 +877,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>155909</xdr:rowOff>
+          <xdr:rowOff>146384</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>181978</xdr:rowOff>
+          <xdr:rowOff>172453</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -893,7 +893,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,132 +1437,57 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId18" name="Control 8">
+        <control shapeId="1025" r:id="rId18" name="Control 1">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId18" name="Control 8"/>
+        <control shapeId="1025" r:id="rId18" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId20" name="Control 7">
+        <control shapeId="1026" r:id="rId20" name="Control 2">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId20" name="Control 7"/>
+        <control shapeId="1026" r:id="rId20" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId21" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId21" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId23" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId23" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId24" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId24" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId25" name="Control 3">
+        <control shapeId="1027" r:id="rId21" name="Control 3">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
@@ -1582,57 +1507,132 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId25" name="Control 3"/>
+        <control shapeId="1027" r:id="rId21" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId26" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId19">
+        <control shapeId="1028" r:id="rId22" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId26" name="Control 2"/>
+        <control shapeId="1028" r:id="rId22" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId27" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId19">
+        <control shapeId="1029" r:id="rId24" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId27" name="Control 1"/>
+        <control shapeId="1029" r:id="rId24" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId25" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId25" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId26" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId26" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId27" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId27" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1760,7 +1760,9 @@
       <c r="G2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -1770,7 +1772,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="27">
         <f>COUNTIFS(C2:O2,"X",C2:O2,"x")*6/COUNTA(C2:O2)/6</f>
-        <v>0.79999999999999993</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1">
@@ -1795,7 +1797,9 @@
       <c r="G3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
@@ -1805,7 +1809,7 @@
       <c r="O3" s="26"/>
       <c r="P3" s="28">
         <f>COUNTIFS(C3:O3,"X",C3:O3,"x")*6/COUNTA(C3:O3)/6</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" customHeight="1">
@@ -1830,7 +1834,9 @@
       <c r="G4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
@@ -1865,7 +1871,9 @@
       <c r="G5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -1900,7 +1908,9 @@
       <c r="G6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -1935,7 +1945,9 @@
       <c r="G7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -1945,7 +1957,7 @@
       <c r="O7" s="26"/>
       <c r="P7" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
@@ -1970,7 +1982,9 @@
       <c r="G8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
@@ -1980,7 +1994,7 @@
       <c r="O8" s="24"/>
       <c r="P8" s="28">
         <f t="shared" si="1"/>
-        <v>0.79999999999999993</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
@@ -2005,7 +2019,9 @@
       <c r="G9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>

--- a/misc/Caderneta-2022.xlsx
+++ b/misc/Caderneta-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\delineamentos22\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\delineamentos22\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
   <si>
     <t>RA</t>
   </si>
@@ -543,7 +543,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -593,7 +593,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -643,7 +643,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -693,7 +693,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -743,7 +743,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -793,7 +793,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -827,13 +827,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>147387</xdr:rowOff>
+          <xdr:rowOff>137862</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>183482</xdr:rowOff>
+          <xdr:rowOff>173957</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -843,7 +843,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -877,13 +877,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>146384</xdr:rowOff>
+          <xdr:rowOff>136859</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>172453</xdr:rowOff>
+          <xdr:rowOff>162928</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -893,7 +893,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,7 +1437,182 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId18" name="Control 1">
+        <control shapeId="1032" r:id="rId18" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId18" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId20" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId20" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId21" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId21" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId23" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId23" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId24" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId24" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId25" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId25" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId26" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId26" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId27" name="Control 1">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
@@ -1457,182 +1632,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId18" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId20" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId20" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId21" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId21" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId22" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId22" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId25" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId25" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId26" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId26" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId27" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId27" name="Control 8"/>
+        <control shapeId="1025" r:id="rId27" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1763,7 +1763,9 @@
       <c r="H2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
@@ -1772,7 +1774,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="27">
         <f>COUNTIFS(C2:O2,"X",C2:O2,"x")*6/COUNTA(C2:O2)/6</f>
-        <v>0.83333333333333337</v>
+        <v>0.85714285714285721</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1">
@@ -1800,7 +1802,9 @@
       <c r="H3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
@@ -1809,7 +1813,7 @@
       <c r="O3" s="26"/>
       <c r="P3" s="28">
         <f>COUNTIFS(C3:O3,"X",C3:O3,"x")*6/COUNTA(C3:O3)/6</f>
-        <v>0.83333333333333337</v>
+        <v>0.85714285714285721</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" customHeight="1">
@@ -1837,7 +1841,9 @@
       <c r="H4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
@@ -1874,7 +1880,9 @@
       <c r="H5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -1883,7 +1891,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.85714285714285721</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
@@ -1911,7 +1919,9 @@
       <c r="H6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
@@ -1948,7 +1958,9 @@
       <c r="H7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
@@ -1957,7 +1969,7 @@
       <c r="O7" s="26"/>
       <c r="P7" s="28">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>0.85714285714285721</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
@@ -1985,7 +1997,9 @@
       <c r="H8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
@@ -1994,7 +2008,7 @@
       <c r="O8" s="24"/>
       <c r="P8" s="28">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
@@ -2022,7 +2036,9 @@
       <c r="H9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>

--- a/misc/Caderneta-2022.xlsx
+++ b/misc/Caderneta-2022.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="38">
   <si>
     <t>RA</t>
   </si>
@@ -543,7 +543,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -593,7 +593,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -643,7 +643,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -693,7 +693,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -743,7 +743,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -793,7 +793,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -827,13 +827,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>137862</xdr:rowOff>
+          <xdr:rowOff>128337</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>173957</xdr:rowOff>
+          <xdr:rowOff>164432</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -843,7 +843,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -877,13 +877,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>136859</xdr:rowOff>
+          <xdr:rowOff>127334</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>162928</xdr:rowOff>
+          <xdr:rowOff>153403</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -893,7 +893,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,132 +1437,57 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId18" name="Control 8">
+        <control shapeId="1025" r:id="rId18" name="Control 1">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId18" name="Control 8"/>
+        <control shapeId="1025" r:id="rId18" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId20" name="Control 7">
+        <control shapeId="1026" r:id="rId20" name="Control 2">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId20" name="Control 7"/>
+        <control shapeId="1026" r:id="rId20" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId21" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId21" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId23" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId23" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId24" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId24" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId25" name="Control 3">
+        <control shapeId="1027" r:id="rId21" name="Control 3">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
@@ -1582,57 +1507,132 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId25" name="Control 3"/>
+        <control shapeId="1027" r:id="rId21" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId26" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId19">
+        <control shapeId="1028" r:id="rId22" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId26" name="Control 2"/>
+        <control shapeId="1028" r:id="rId22" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId27" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId19">
+        <control shapeId="1029" r:id="rId24" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId27" name="Control 1"/>
+        <control shapeId="1029" r:id="rId24" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId25" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId25" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId26" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId26" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId27" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId27" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1766,7 +1766,9 @@
       <c r="I2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
@@ -1774,7 +1776,7 @@
       <c r="O2" s="24"/>
       <c r="P2" s="27">
         <f>COUNTIFS(C2:O2,"X",C2:O2,"x")*6/COUNTA(C2:O2)/6</f>
-        <v>0.85714285714285721</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1">
@@ -1805,7 +1807,9 @@
       <c r="I3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="25"/>
+      <c r="J3" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -1813,7 +1817,7 @@
       <c r="O3" s="26"/>
       <c r="P3" s="28">
         <f>COUNTIFS(C3:O3,"X",C3:O3,"x")*6/COUNTA(C3:O3)/6</f>
-        <v>0.85714285714285721</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" customHeight="1">
@@ -1844,7 +1848,9 @@
       <c r="I4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
@@ -1883,7 +1889,9 @@
       <c r="I5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="25"/>
+      <c r="J5" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
@@ -1891,7 +1899,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="28">
         <f t="shared" si="1"/>
-        <v>0.85714285714285721</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
@@ -1922,7 +1930,9 @@
       <c r="I6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
@@ -1961,7 +1971,9 @@
       <c r="I7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
@@ -1969,7 +1981,7 @@
       <c r="O7" s="26"/>
       <c r="P7" s="28">
         <f t="shared" si="1"/>
-        <v>0.85714285714285721</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
@@ -2000,7 +2012,9 @@
       <c r="I8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
@@ -2008,7 +2022,7 @@
       <c r="O8" s="24"/>
       <c r="P8" s="28">
         <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
@@ -2039,7 +2053,9 @@
       <c r="I9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>

--- a/misc/Caderneta-2022.xlsx
+++ b/misc/Caderneta-2022.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="38">
   <si>
     <t>RA</t>
   </si>
@@ -543,7 +543,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -593,7 +593,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -643,7 +643,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -693,7 +693,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -743,7 +743,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -793,7 +793,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -827,13 +827,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>128337</xdr:rowOff>
+          <xdr:rowOff>118812</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>164432</xdr:rowOff>
+          <xdr:rowOff>154907</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -843,7 +843,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -877,13 +877,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>127334</xdr:rowOff>
+          <xdr:rowOff>117809</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>153403</xdr:rowOff>
+          <xdr:rowOff>143878</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -893,7 +893,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,7 +1437,182 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId18" name="Control 1">
+        <control shapeId="1032" r:id="rId18" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId18" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId20" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId20" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId21" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId21" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId23" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId23" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId24" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId24" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId25" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId25" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId26" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId26" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId27" name="Control 1">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
@@ -1457,182 +1632,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId18" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId20" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId20" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId21" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId21" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId22" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId22" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId25" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId25" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId26" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId26" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId27" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId27" name="Control 8"/>
+        <control shapeId="1025" r:id="rId27" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1770,13 +1770,15 @@
         <v>35</v>
       </c>
       <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="L2" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
       <c r="O2" s="24"/>
       <c r="P2" s="27">
         <f>COUNTIFS(C2:O2,"X",C2:O2,"x")*6/COUNTA(C2:O2)/6</f>
-        <v>0.875</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1">
@@ -1811,13 +1813,15 @@
         <v>35</v>
       </c>
       <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="L3" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="26"/>
       <c r="P3" s="28">
         <f>COUNTIFS(C3:O3,"X",C3:O3,"x")*6/COUNTA(C3:O3)/6</f>
-        <v>0.875</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" customHeight="1">
@@ -1852,12 +1856,14 @@
         <v>35</v>
       </c>
       <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="L4" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
       <c r="O4" s="24"/>
       <c r="P4" s="28">
-        <f t="shared" ref="P4:P9" si="1">COUNTIFS(C4:O4,"X",C4:O4,"x")*6/COUNTA(C4:O4)/6</f>
+        <f>COUNTIFS(C4:O4,"X",C4:O4,"x")*6/COUNTA(C4:O4)/6</f>
         <v>1</v>
       </c>
     </row>
@@ -1893,13 +1899,15 @@
         <v>35</v>
       </c>
       <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="L5" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
       <c r="O5" s="26"/>
       <c r="P5" s="28">
-        <f t="shared" si="1"/>
-        <v>0.875</v>
+        <f>COUNTIFS(C5:O5,"X",C5:O5,"x")*6/COUNTA(C5:O5)/6</f>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
@@ -1934,12 +1942,14 @@
         <v>35</v>
       </c>
       <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="24"/>
       <c r="P6" s="28">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(C6:O6,"X",C6:O6,"x")*6/COUNTA(C6:O6)/6</f>
         <v>1</v>
       </c>
     </row>
@@ -1975,13 +1985,15 @@
         <v>35</v>
       </c>
       <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="L7" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
       <c r="O7" s="26"/>
       <c r="P7" s="28">
-        <f t="shared" si="1"/>
-        <v>0.875</v>
+        <f>COUNTIFS(C7:O7,"X",C7:O7,"x")*6/COUNTA(C7:O7)/6</f>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
@@ -2016,13 +2028,15 @@
         <v>35</v>
       </c>
       <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="24"/>
       <c r="P8" s="28">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <f>COUNTIFS(C8:O8,"X",C8:O8,"x")*6/COUNTA(C8:O8)/6</f>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
@@ -2057,12 +2071,14 @@
         <v>36</v>
       </c>
       <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="L9" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
       <c r="O9" s="26"/>
       <c r="P9" s="28">
-        <f t="shared" si="1"/>
+        <f>COUNTIFS(C9:O9,"X",C9:O9,"x")*6/COUNTA(C9:O9)/6</f>
         <v>0</v>
       </c>
     </row>

--- a/misc/Caderneta-2022.xlsx
+++ b/misc/Caderneta-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\delineamentos22\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\delineamentos22\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="38">
   <si>
     <t>RA</t>
   </si>
@@ -543,7 +543,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -593,7 +593,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -643,7 +643,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -693,7 +693,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -743,7 +743,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -793,7 +793,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -827,13 +827,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>118812</xdr:rowOff>
+          <xdr:rowOff>109287</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>154907</xdr:rowOff>
+          <xdr:rowOff>145382</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -843,7 +843,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -877,13 +877,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>117809</xdr:rowOff>
+          <xdr:rowOff>108284</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>169946</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>143878</xdr:rowOff>
+          <xdr:rowOff>134353</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -893,7 +893,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,132 +1437,57 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId18" name="Control 8">
+        <control shapeId="1025" r:id="rId18" name="Control 1">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId18" name="Control 8"/>
+        <control shapeId="1025" r:id="rId18" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId20" name="Control 7">
+        <control shapeId="1026" r:id="rId20" name="Control 2">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId20" name="Control 7"/>
+        <control shapeId="1026" r:id="rId20" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId21" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId21" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId23" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId23" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId24" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId24" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId25" name="Control 3">
+        <control shapeId="1027" r:id="rId21" name="Control 3">
           <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
@@ -1582,57 +1507,132 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId25" name="Control 3"/>
+        <control shapeId="1027" r:id="rId21" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId26" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId19">
+        <control shapeId="1028" r:id="rId22" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId26" name="Control 2"/>
+        <control shapeId="1028" r:id="rId22" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId27" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId19">
+        <control shapeId="1029" r:id="rId24" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId27" name="Control 1"/>
+        <control shapeId="1029" r:id="rId24" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId25" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId25" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId26" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId26" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId27" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId27" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1677,7 +1677,8 @@
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.140625" customWidth="1"/>
   </cols>
@@ -1773,12 +1774,16 @@
       <c r="L2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="O2" s="24"/>
       <c r="P2" s="27">
-        <f>COUNTIFS(C2:O2,"X",C2:O2,"x")*6/COUNTA(C2:O2)/6</f>
-        <v>0.88888888888888884</v>
+        <f t="shared" ref="P2:P9" si="1">COUNTIFS(C2:O2,"X",C2:O2,"x")*6/COUNTA(C2:O2)/6</f>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1">
@@ -1816,12 +1821,16 @@
       <c r="L3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
+      <c r="M3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="O3" s="26"/>
       <c r="P3" s="28">
-        <f>COUNTIFS(C3:O3,"X",C3:O3,"x")*6/COUNTA(C3:O3)/6</f>
-        <v>0.88888888888888884</v>
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" customHeight="1">
@@ -1859,12 +1868,16 @@
       <c r="L4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="O4" s="24"/>
       <c r="P4" s="28">
-        <f>COUNTIFS(C4:O4,"X",C4:O4,"x")*6/COUNTA(C4:O4)/6</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1">
@@ -1902,12 +1915,16 @@
       <c r="L5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
+      <c r="M5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="O5" s="26"/>
       <c r="P5" s="28">
-        <f>COUNTIFS(C5:O5,"X",C5:O5,"x")*6/COUNTA(C5:O5)/6</f>
-        <v>0.88888888888888884</v>
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
@@ -1945,11 +1962,15 @@
       <c r="L6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="M6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="O6" s="24"/>
       <c r="P6" s="28">
-        <f>COUNTIFS(C6:O6,"X",C6:O6,"x")*6/COUNTA(C6:O6)/6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1988,12 +2009,16 @@
       <c r="L7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
+      <c r="M7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="O7" s="26"/>
       <c r="P7" s="28">
-        <f>COUNTIFS(C7:O7,"X",C7:O7,"x")*6/COUNTA(C7:O7)/6</f>
-        <v>0.88888888888888884</v>
+        <f t="shared" si="1"/>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
@@ -2031,12 +2056,16 @@
       <c r="L8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="M8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="O8" s="24"/>
       <c r="P8" s="28">
-        <f>COUNTIFS(C8:O8,"X",C8:O8,"x")*6/COUNTA(C8:O8)/6</f>
-        <v>0.77777777777777779</v>
+        <f t="shared" si="1"/>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
@@ -2074,11 +2103,15 @@
       <c r="L9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
+      <c r="M9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="O9" s="26"/>
       <c r="P9" s="28">
-        <f>COUNTIFS(C9:O9,"X",C9:O9,"x")*6/COUNTA(C9:O9)/6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
